--- a/biology/Zoologie/Erebia_fasciata/Erebia_fasciata.xlsx
+++ b/biology/Zoologie/Erebia_fasciata/Erebia_fasciata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Erebia fasciata est un lépidoptère appartenant à la famille des Nymphalidae, à la sous-famille des Satyrinae et au genre Erebia.
 </t>
@@ -511,15 +523,12 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Erebia fasciata a été nommé par Butler en 1868.
-Synonyme : Erebia suffusa Warren, 1936[1].
-Sous-espèces
-Erebia fasciata semo Grum-Grshimailo, 1899 ;
-Erebia fasciata avinoffi Holland, 1930 [1].
-Nom vernaculaire
-Erebia fasciata se nomme Banded Alpine en anglais[1].
+Synonyme : Erebia suffusa Warren, 1936.
 </t>
         </is>
       </c>
@@ -545,16 +554,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Erebia  fasciata est un papillon marron très foncé presque noir, de taille moyenne (d'une envergure de 38 à 53 mm) avec dans la moitié distale des ailes antérieures une suffusion cuivrée.
-Le revers des ailes antérieures est semblable, marron avec une suffusion cuivrée de la partie distale alors que les postérieures marron très foncé sont barrées de deux bandes, une basale et une médiane, gris clair[2],[3].
-Chenille
-La chenille n'est pas connue[3].
-</t>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Erebia fasciata semo Grum-Grshimailo, 1899 ;
+Erebia fasciata avinoffi Holland, 1930 .</t>
         </is>
       </c>
     </row>
@@ -579,15 +591,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Période de vol et hivernation
-Il vole en une génération de juin à mi-juillet[2].
-Plantes hôtes
-Les plantes hôtes des chenilles sont des Carex[1].
+          <t>Nom vernaculaire</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Erebia fasciata se nomme Banded Alpine en anglais.
 </t>
         </is>
       </c>
@@ -613,16 +628,233 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Erebia  fasciata est un papillon marron très foncé presque noir, de taille moyenne (d'une envergure de 38 à 53 mm) avec dans la moitié distale des ailes antérieures une suffusion cuivrée.
+Le revers des ailes antérieures est semblable, marron avec une suffusion cuivrée de la partie distale alors que les postérieures marron très foncé sont barrées de deux bandes, une basale et une médiane, gris clair,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Erebia_fasciata</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Erebia_fasciata</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Chenille</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La chenille n'est pas connue.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Erebia_fasciata</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Erebia_fasciata</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Période de vol et hivernation</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il vole en une génération de juin à mi-juillet.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Erebia_fasciata</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Erebia_fasciata</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plantes hôtes des chenilles sont des Carex.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Erebia_fasciata</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Erebia_fasciata</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est circumpolaire et réside dans toute la zone arctique de l'Asie et de l'Amérique du Nord, le nord de la Sibérie, la Péninsule tchouktche, l'Alaska, le Yukon, les Territoires du Nord-Ouest jusqu'à la baie d'Hudson[1],[2].
-Biotope
-Il réside dans la toundra arctique[1].
-Protection
-Pas de statut de protection particulier connu.
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est circumpolaire et réside dans toute la zone arctique de l'Asie et de l'Amérique du Nord, le nord de la Sibérie, la Péninsule tchouktche, l'Alaska, le Yukon, les Territoires du Nord-Ouest jusqu'à la baie d'Hudson,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Erebia_fasciata</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Erebia_fasciata</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il réside dans la toundra arctique.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Erebia_fasciata</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Erebia_fasciata</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier connu.
 </t>
         </is>
       </c>
